--- a/test-data/SpacePlanning.xlsx
+++ b/test-data/SpacePlanning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6228739A-C81D-4D56-AACA-B05A761B4996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F0647-94A9-42B3-9AE0-2291FD32700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
     <t>To Week</t>
   </si>
   <si>
-    <t>HEADLESS</t>
+    <t>CHROME</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4097,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F73C3D-02A3-400E-8654-31C4DC88717E}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test-data/SpacePlanning.xlsx
+++ b/test-data/SpacePlanning.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F0647-94A9-42B3-9AE0-2291FD32700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14204C5-6D9F-486B-851E-A66B816A6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="1" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="189">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -57,6 +57,9 @@
     <t>Iteration2</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>CallSequence</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t>DetailedViewColumn_Header</t>
   </si>
   <si>
+    <t>CHROME</t>
+  </si>
+  <si>
     <t>Select all</t>
   </si>
   <si>
@@ -570,9 +576,6 @@
     <t>https://app.powerbi.com/groups/41000121-9728-4f5f-a602-386eef80da9f/reports/5414f238-97dd-47b2-ae6c-e4cff51ae7e9/ReportSection22c02da5014c4382a04c</t>
   </si>
   <si>
-    <t>mahan.madiwal@jda.com</t>
-  </si>
-  <si>
     <t>Sub Category</t>
   </si>
   <si>
@@ -594,13 +597,20 @@
     <t>To Week</t>
   </si>
   <si>
-    <t>CHROME</t>
+    <t>Phantoon*1984a</t>
+  </si>
+  <si>
+    <t>ganeshb.poojary@jda.com</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -732,12 +742,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,6 +788,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -797,6 +823,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,18 +1144,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="109.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="18.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,668 +1178,767 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="26">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="26">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="26">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="26">
-        <v>1</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="26">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="26">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="C12" s="27">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="26">
-        <v>1</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B14" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="26">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="26">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="26">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="C16" s="27">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="26">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="26">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="26">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B20" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="26">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="26">
-        <v>1</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="C21" s="27">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B22" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="26">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="26">
-        <v>1</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B24" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="26">
-        <v>1</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="C24" s="27">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B25" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="C25" s="27">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B26" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="C26" s="27">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B27" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="C27" s="27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B28" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="26">
-        <v>1</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="C28" s="27">
+        <v>1</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B29" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="26">
-        <v>1</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="C29" s="27">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B30" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="26">
-        <v>1</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="C30" s="27">
+        <v>1</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B31" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="26">
-        <v>1</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="C31" s="27">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B32" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B33" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="26">
-        <v>1</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B34" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="26">
-        <v>1</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="C34" s="27">
+        <v>1</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B35" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="26">
-        <v>1</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="C35" s="27">
+        <v>1</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B36" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="26">
-        <v>1</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="C36" s="27">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B37" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="26">
-        <v>1</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="C37" s="27">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B38" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="26">
-        <v>1</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="C38" s="27">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B39" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="26">
-        <v>1</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="C39" s="27">
+        <v>1</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B40" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="26">
-        <v>1</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="C40" s="27">
+        <v>1</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B41" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="26">
-        <v>1</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="C41" s="27">
+        <v>1</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B42" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="26">
-        <v>1</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="C42" s="27">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B43" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="26">
-        <v>1</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="C43" s="27">
+        <v>1</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B44" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="26">
-        <v>1</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="C44" s="27">
+        <v>1</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B45" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="26">
-        <v>1</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="C45" s="27">
+        <v>1</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B46" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="26">
-        <v>1</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="C46" s="27">
+        <v>1</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B47" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="26">
-        <v>1</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="C47" s="27">
+        <v>1</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="26">
-        <v>1</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="C48" s="27">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="27">
+        <v>1</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1821,20 +1949,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170:XFD605"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="103.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="78.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="55.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="23.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="103.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1842,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
@@ -1856,1980 +1984,1979 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E79" s="11"/>
     </row>
-    <row r="80" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>158</v>
-      </c>
       <c r="C121" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>158</v>
+        <v>96</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>158</v>
+        <v>100</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>158</v>
+        <v>102</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D136" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="C147" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D151" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D155" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D158" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E161" s="11"/>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D165" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C166" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D166" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D169" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="E170" s="11"/>
-    </row>
-    <row r="171" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="11"/>
-    </row>
-    <row r="172" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="5"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="11"/>
-    </row>
-    <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="11"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="D174" s="5"/>
-    </row>
-    <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="D175" s="5"/>
-    </row>
+      <c r="A174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="D176" s="5"/>
+      <c r="E176" s="11"/>
     </row>
     <row r="177" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="D177" s="5"/>
+      <c r="E177" s="11"/>
     </row>
     <row r="178" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="D178" s="5"/>
+      <c r="E178" s="11"/>
     </row>
     <row r="179" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="11"/>
     </row>
     <row r="180" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
+      <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-    </row>
-    <row r="182" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="D182" s="5"/>
+    </row>
     <row r="183" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="D183" s="5"/>
-      <c r="E183" s="11"/>
     </row>
     <row r="184" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
@@ -3837,58 +3964,53 @@
     </row>
     <row r="185" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-    </row>
+    </row>
+    <row r="188" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="189" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
+      <c r="A189" s="4"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="11"/>
     </row>
     <row r="190" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
+      <c r="A190" s="4"/>
+      <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
-    </row>
-    <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="6"/>
-      <c r="E193" s="11"/>
-    </row>
-    <row r="194" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="D194" s="5"/>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
     </row>
     <row r="195" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
-      <c r="D195" s="5"/>
+      <c r="A195" s="17"/>
     </row>
     <row r="196" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-      <c r="E197" s="11"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-      <c r="E198" s="11"/>
-    </row>
+      <c r="A196" s="17"/>
+    </row>
+    <row r="197" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="17"/>
+    </row>
+    <row r="198" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
+      <c r="B199" s="6"/>
       <c r="E199" s="11"/>
     </row>
     <row r="200" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3903,21 +4025,21 @@
       <c r="A202" s="4"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="E203" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
-      <c r="D204" s="5"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
-      <c r="D205" s="5"/>
       <c r="E205" s="11"/>
     </row>
     <row r="206" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="D206" s="5"/>
-      <c r="E206" s="11"/>
     </row>
     <row r="207" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
@@ -3927,106 +4049,106 @@
       <c r="A208" s="4"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="D209" s="5"/>
-    </row>
+    <row r="209" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="210" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="D210" s="5"/>
+      <c r="E210" s="11"/>
     </row>
     <row r="211" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="11"/>
+    </row>
+    <row r="212" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
+      <c r="D212" s="5"/>
       <c r="E212" s="11"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="E213" s="11"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
-      <c r="E214" s="11"/>
+      <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
+      <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
+      <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="B218" s="15"/>
-      <c r="D218" s="5"/>
       <c r="E218" s="11"/>
     </row>
-    <row r="219" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="D219" s="5"/>
-    </row>
-    <row r="220" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E219" s="11"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="D220" s="5"/>
       <c r="E220" s="11"/>
     </row>
-    <row r="221" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+    </row>
     <row r="222" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="11"/>
     </row>
     <row r="223" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="11"/>
     </row>
     <row r="224" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
+      <c r="B224" s="16"/>
       <c r="D224" s="5"/>
       <c r="E224" s="11"/>
     </row>
     <row r="225" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="D225" s="5"/>
-      <c r="E225" s="11"/>
     </row>
     <row r="226" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="D226" s="5"/>
-    </row>
-    <row r="227" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="D227" s="5"/>
-    </row>
+      <c r="E226" s="11"/>
+    </row>
+    <row r="227" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="228" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="D228" s="5"/>
+      <c r="E228" s="11"/>
     </row>
     <row r="229" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="D229" s="5"/>
+      <c r="E229" s="11"/>
     </row>
     <row r="230" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="D230" s="5"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="11"/>
+    </row>
+    <row r="231" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
+      <c r="D231" s="5"/>
       <c r="E231" s="11"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="E232" s="11"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D232" s="5"/>
+    </row>
+    <row r="233" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="E233" s="11"/>
+      <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
@@ -4040,22 +4162,21 @@
       <c r="A236" s="4"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="D237" s="5"/>
-    </row>
-    <row r="238" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E237" s="11"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="D238" s="5"/>
-    </row>
-    <row r="239" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E238" s="11"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="D239" s="5"/>
+      <c r="E239" s="11"/>
     </row>
     <row r="240" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="D240" s="5"/>
-      <c r="E240" s="11"/>
     </row>
     <row r="241" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
@@ -4064,20 +4185,23 @@
     <row r="242" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="D242" s="5"/>
-      <c r="E242" s="11"/>
-    </row>
-    <row r="243" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="B244" s="6"/>
-      <c r="E244" s="11"/>
-    </row>
-    <row r="245" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
+      <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="D246" s="5"/>
+      <c r="E246" s="11"/>
     </row>
     <row r="247" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
@@ -4086,6 +4210,28 @@
     <row r="248" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="D248" s="5"/>
+      <c r="E248" s="11"/>
+    </row>
+    <row r="249" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="6"/>
+      <c r="E250" s="11"/>
+    </row>
+    <row r="251" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="D252" s="5"/>
+    </row>
+    <row r="253" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="D253" s="5"/>
+    </row>
+    <row r="254" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="D254" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4097,981 +4243,881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F73C3D-02A3-400E-8654-31C4DC88717E}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21" t="s">
-        <v>182</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
-        <v>183</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="12">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="12">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="12">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="12">
-        <v>1</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="12">
-        <v>1</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="12">
-        <v>1</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="12">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="12">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="12">
-        <v>1</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="12">
-        <v>1</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="12">
-        <v>1</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="12">
-        <v>1</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="12">
-        <v>1</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B42" s="12">
-        <v>1</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="12">
-        <v>1</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="12">
-        <v>1</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="12">
-        <v>1</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="12">
-        <v>1</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="12">
-        <v>1</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>20</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="12">
-        <v>1</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>178</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="12">
-        <v>1</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A5B76105-7FC2-4AE0-8CA9-4C4D729123D4}"/>
-    <hyperlink ref="E3:E7" r:id="rId2" display="mahan.madiwal@jda.com" xr:uid="{BBC0AFCD-E536-4316-BB8B-F839AD3EB05A}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{B0F1546B-674F-4210-BE9F-98BF9C3C1187}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{270EA432-6CF5-4240-BAA3-FA9417E320E9}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{E21861D6-D2E4-4CD7-8A42-DC363709E964}"/>
-    <hyperlink ref="E11:E49" r:id="rId6" display="mahan.madiwal@jda.com" xr:uid="{408121CA-C278-4566-871A-96EEA060954C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-data/SpacePlanning.xlsx
+++ b/test-data/SpacePlanning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14204C5-6D9F-486B-851E-A66B816A6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B128BC49-F2B1-43FB-8C70-796FAB5422D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="1" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="185">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Iteration2</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>CallSequence</t>
   </si>
   <si>
@@ -595,22 +592,12 @@
   </si>
   <si>
     <t>To Week</t>
-  </si>
-  <si>
-    <t>Phantoon*1984a</t>
-  </si>
-  <si>
-    <t>ganeshb.poojary@jda.com</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,7 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1144,18 +1130,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD166"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="109.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="18.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="109.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,767 +1164,765 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="B3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="27">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26" t="s">
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="26">
+        <v>1</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="26">
+        <v>1</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="26">
+        <v>1</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="26">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="26">
+        <v>1</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="26">
+        <v>1</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="26">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="26">
+        <v>1</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="26">
+        <v>1</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="26">
+        <v>1</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="26">
+        <v>1</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="26">
+        <v>1</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="26">
+        <v>1</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="26">
+        <v>1</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="26">
+        <v>1</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="26">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="26">
+        <v>1</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="26">
+        <v>1</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="26">
+        <v>1</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="26">
+        <v>1</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="26">
+        <v>1</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="26">
+        <v>1</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="27">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="27">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="27">
-        <v>1</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="27">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="27">
-        <v>1</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="27">
-        <v>1</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="27">
-        <v>1</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="27">
-        <v>1</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="27">
-        <v>1</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="27">
-        <v>1</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="27">
-        <v>1</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="27">
-        <v>1</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="27">
-        <v>1</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="27">
-        <v>1</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="27">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="27">
-        <v>1</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="27">
-        <v>1</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="27">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="27">
-        <v>1</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="27">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="27">
-        <v>1</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="27">
-        <v>1</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-    </row>
-    <row r="34" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="27">
-        <v>1</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="27">
-        <v>1</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="26"/>
-    </row>
-    <row r="36" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="27">
-        <v>1</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="27">
-        <v>1</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="26"/>
-    </row>
-    <row r="38" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="27">
-        <v>1</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="27">
-        <v>1</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="27">
-        <v>1</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="27">
-        <v>1</v>
-      </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="27">
-        <v>1</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="26"/>
-    </row>
-    <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="27">
-        <v>1</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="26"/>
-    </row>
-    <row r="44" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="27">
-        <v>1</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="26"/>
-    </row>
-    <row r="45" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="27">
-        <v>1</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="26"/>
-    </row>
-    <row r="46" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="27">
-        <v>1</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="27">
-        <v>1</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="26"/>
-    </row>
-    <row r="48" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="27">
-        <v>1</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="49" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="27">
-        <v>1</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="26"/>
+      <c r="F49" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1951,18 +1935,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
   <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="78.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="23.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="103.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="78.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="103.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1970,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
@@ -1984,1925 +1968,1925 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D118" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B137" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D140" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D158" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E161" s="11"/>
     </row>
     <row r="162" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,20 +4227,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F73C3D-02A3-400E-8654-31C4DC88717E}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="146" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="22.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4264,80 +4251,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>186</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="23"/>
@@ -4345,774 +4328,774 @@
     </row>
     <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="24" t="s">
-        <v>182</v>
+      <c r="G7" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="13">
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="13">
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="13">
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="13">
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="13">
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="13">
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="13">
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="13">
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="13">
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="13">
         <v>1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="13">
         <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="13">
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="13">
         <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="13">
         <v>1</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="13">
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="13">
         <v>1</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="13">
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="13">
         <v>1</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="13">
         <v>1</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="13">
         <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="13">
         <v>1</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="13">
         <v>1</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="13">
         <v>1</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="13">
         <v>1</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="13">
         <v>1</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="13">
         <v>1</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="13">
         <v>1</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="13">
         <v>1</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="13">
         <v>1</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="13">
         <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="13">
         <v>1</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
